--- a/data/income_statement/3digits/total/521_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/521_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>521-Warehousing and storage</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>521-Warehousing and storage</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1487261.63101</v>
@@ -962,31 +868,36 @@
         <v>2178020.02301</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3275662.50309</v>
+        <v>3278292.21436</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3024381.43352</v>
+        <v>3031295.90227</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3201902.65043</v>
+        <v>3243066.28346</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3488319.97965</v>
+        <v>3495065.92746</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>4382665.47926</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4907646.69885</v>
+        <v>4909066.55132</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6086199.696129999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6104612.662939999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>9526277.873</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1118455.85386</v>
@@ -1001,31 +912,36 @@
         <v>1891426.13496</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2397198.52167</v>
+        <v>2398167.02993</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2657824.42905</v>
+        <v>2663652.87391</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2742793.75366</v>
+        <v>2772005.80566</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2855944.18171</v>
+        <v>2861497.99864</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>3763219.68958</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4136745.24979</v>
+        <v>4138127.42525</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5089179.173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5101548.57822</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>8237697.834</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>342873.22577</v>
@@ -1040,37 +956,42 @@
         <v>254786.83018</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>837337.63477</v>
+        <v>837337.6347700001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>320684.90483</v>
+        <v>321465.60688</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>397526.7067799999</v>
+        <v>408386.0938399999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>457631.66078</v>
+        <v>457651.17855</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>537608.8036700001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>648791.95158</v>
+        <v>648829.29232</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>843275.89804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>849310.0174299999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1074114.557</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>25932.55138</v>
+        <v>25932.55137999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>47640.51515000001</v>
+        <v>47640.51515</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>40730.66571</v>
@@ -1079,31 +1000,36 @@
         <v>31807.05787</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>41126.34665</v>
+        <v>42787.54966</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>45872.09964</v>
+        <v>46177.42148</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>61582.18999</v>
+        <v>62674.38395999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>174744.13716</v>
+        <v>175916.75027</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>81836.98600999999</v>
+        <v>81836.98601000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>122109.49748</v>
+        <v>122109.83375</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>153744.62509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>153754.06729</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>214465.482</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>16223.79325</v>
@@ -1118,52 +1044,57 @@
         <v>15239.49759</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>156576.54377</v>
+        <v>156598.72156</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>34834.08291</v>
+        <v>35011.85354</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>51081.03575</v>
+        <v>51137.87669</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>48513.06569</v>
+        <v>48526.26061</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>117064.07965</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>160153.27453</v>
+        <v>160169.44134</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>193531.56743</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>329714.99</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>9097.403109999999</v>
+        <v>9097.403110000001</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>6012.87683</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5660.46505</v>
+        <v>5660.465050000001</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>7324.68759</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>147998.8464</v>
+        <v>148007.37191</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>24121.73154</v>
+        <v>24298.58072</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>28471.60154</v>
+        <v>28528.44248000001</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>28829.7643</v>
@@ -1172,16 +1103,21 @@
         <v>47181.94024</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>24069.58076</v>
+        <v>24085.74757</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>25848.24229</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>108521.411</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>6344.94833</v>
@@ -1196,16 +1132,16 @@
         <v>7060.60869</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>8216.841280000001</v>
+        <v>8230.493559999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>10217.94193</v>
+        <v>10218.86338</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>22090.7432</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>19016.04025</v>
+        <v>19029.23517</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>68642.94333999998</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>160941.28191</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>214861.633</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>781.44181</v>
@@ -1229,16 +1170,16 @@
         <v>1385.78432</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>904.9479099999999</v>
+        <v>904.94791</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>854.20131</v>
+        <v>854.2013099999999</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>360.8560900000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>494.40944</v>
+        <v>494.4094400000001</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>518.69101</v>
@@ -1253,13 +1194,18 @@
         <v>3480.59019</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>6742.04323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>6742.043229999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6331.946</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1471037.83776</v>
@@ -1274,31 +1220,36 @@
         <v>2162780.52542</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3119085.95932</v>
+        <v>3121693.4928</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2989547.35061</v>
+        <v>2996284.04873</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3150821.61468</v>
+        <v>3191928.40677</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3439806.91396</v>
+        <v>3446539.66685</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>4265601.39961</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4747493.424319999</v>
+        <v>4748897.10998</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5892668.1287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5911081.09551</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>9196562.882999999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1189561.67705</v>
@@ -1313,31 +1264,36 @@
         <v>1754032.98317</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2662670.79023</v>
+        <v>2663093.83966</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2465740.67097</v>
+        <v>2470206.29775</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2455325.64775</v>
+        <v>2483843.59915</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2566798.10882</v>
+        <v>2572296.26123</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>3255198.64922</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3569812.22372</v>
+        <v>3570908.49806</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4491951.48217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4507016.43651</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6980956.648</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>22612.58088</v>
@@ -1355,7 +1311,7 @@
         <v>42490.69604</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>54807.11958</v>
+        <v>55100.42548000001</v>
       </c>
       <c r="I15" s="48" t="n">
         <v>40726.7765</v>
@@ -1367,16 +1323,21 @@
         <v>80143.03363999999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>100536.69749</v>
+        <v>100540.83089</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>195917.90539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>196063.65902</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>308440.039</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>351419.03715</v>
@@ -1391,34 +1352,39 @@
         <v>414932.18893</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1091329.01103</v>
+        <v>1091752.06046</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>802463.32603</v>
+        <v>806245.92564</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>753609.7646100001</v>
+        <v>765359.00903</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>653083.08959</v>
+        <v>654156.58959</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>981234.68096</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>793346.97055</v>
+        <v>793845.2520099999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1148016.06244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1159071.36414</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2145536.59</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>814644.7225900001</v>
+        <v>814644.7225899999</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>1040699.36984</v>
@@ -1433,31 +1399,36 @@
         <v>1519313.43196</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1603758.8814</v>
+        <v>1604027.25015</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1639450.71303</v>
+        <v>1656186.92001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1852891.07826</v>
+        <v>1857285.23326</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>2183865.19047</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2660985.72105</v>
+        <v>2661579.58053</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3138539.11338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3142034.77708</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4481255.52</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>885.3364300000001</v>
+        <v>885.33643</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>1806.07621</v>
@@ -1469,16 +1440,16 @@
         <v>2405.80133</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>9537.651199999998</v>
+        <v>9537.6512</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>4711.34396</v>
+        <v>4832.696480000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>21538.39361</v>
+        <v>21570.89361</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>11512.6128</v>
+        <v>11543.11021</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>9955.74415</v>
@@ -1487,19 +1458,24 @@
         <v>14942.83463</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>9478.400959999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>9846.636269999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>45724.499</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>281476.16071</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>373998.2504499999</v>
+        <v>373998.25045</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>443513.47649</v>
@@ -1508,31 +1484,36 @@
         <v>408747.54225</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>456415.16909</v>
+        <v>458599.65314</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>523806.67964</v>
+        <v>526077.75098</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>695495.9669300001</v>
+        <v>708084.8076200001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>873008.80514</v>
+        <v>874243.4056199999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1010402.75039</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1177681.2006</v>
+        <v>1177988.61192</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1400716.64653</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1404064.659</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2215606.235</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>208619.30508</v>
@@ -1547,31 +1528,36 @@
         <v>305381.69948</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>342919.29197</v>
+        <v>345333.3936</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>372289.75979</v>
+        <v>374810.7889099999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>405927.4594000001</v>
+        <v>417514.02729</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>511778.88</v>
+        <v>512402.22001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>601411.36749</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>701328.4832100001</v>
+        <v>701988.2863500001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>809064.1425300001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>810549.7403200001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1290648.938</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>24.54652</v>
@@ -1592,7 +1578,7 @@
         <v>512.50114</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>41.07146</v>
+        <v>41.09707</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>363.97724</v>
@@ -1604,13 +1590,18 @@
         <v>1903.14473</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>5283.33236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5283.332359999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>8947.116</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>28080.27734</v>
@@ -1625,31 +1616,36 @@
         <v>34433.11177</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>42704.36681</v>
+        <v>44503.51436000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>37362.13062999999</v>
+        <v>37441.65763</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>37746.07196</v>
+        <v>40525.22431000001</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>52952.28978</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>68385.29676000001</v>
+        <v>68385.29676</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>91448.29377</v>
+        <v>91494.34359</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>113503.56702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>113608.09197</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>197098.034</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>180514.48122</v>
@@ -1664,31 +1660,36 @@
         <v>270909.04035</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>300214.92516</v>
+        <v>300829.87924</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>334415.12802</v>
+        <v>336856.63014</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>368140.31598</v>
+        <v>376947.70591</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>458462.61298</v>
+        <v>459085.95299</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>533026.07073</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>607977.04471</v>
+        <v>608590.7980299999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>690277.2431500001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>691658.31599</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1084603.788</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>72856.85562999999</v>
@@ -1703,31 +1704,36 @@
         <v>103365.84277</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>113495.87712</v>
+        <v>113266.25954</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>151516.91985</v>
+        <v>151266.96207</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>289568.5075299999</v>
+        <v>290570.78033</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>361229.92514</v>
+        <v>361841.18561</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>408991.3829</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>476352.7173900001</v>
+        <v>476000.32557</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>591652.5039999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>593514.9186800001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>924957.297</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>153181.57923</v>
@@ -1742,31 +1748,36 @@
         <v>148466.96712</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>199643.01797</v>
+        <v>199681.00972</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>245692.3373</v>
+        <v>245693.45559</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>361744.86951</v>
+        <v>367914.73853</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>494738.17238</v>
+        <v>494959.74772</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>722680.0766399999</v>
+        <v>722680.0766400001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1059291.41923</v>
+        <v>1060702.74489</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>708801.21667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>709198.0436900001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1401502.384</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3927.55612</v>
@@ -1775,7 +1786,7 @@
         <v>14414.57316</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>7527.80199</v>
+        <v>7527.801989999999</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>7296.291689999999</v>
@@ -1787,7 +1798,7 @@
         <v>5165.73891</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>3436.2925</v>
+        <v>5112.882259999999</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>7644.640890000001</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1059.76397</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>486.282</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1832,7 +1848,7 @@
         <v>12793.43515</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>92010.16379999999</v>
+        <v>92010.16379999998</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>21757.75771</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>30717.09264</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>2630.609</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>18166.97848</v>
@@ -1856,19 +1877,19 @@
         <v>26055.0151</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>36388.97305000001</v>
+        <v>36388.97305</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>40782.8147</v>
+        <v>40784.24286999999</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>54524.96474</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>64036.96709999999</v>
+        <v>64857.22282</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>71345.34974000001</v>
+        <v>71555.69165000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>74487.68043000001</v>
@@ -1877,13 +1898,18 @@
         <v>90945.45793999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>110419.54202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>110578.40263</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>97112.284</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2366.075</v>
@@ -1916,16 +1942,21 @@
         <v>3094.70922</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2794.28091</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2794.28097</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>2126.948</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>856.7602399999998</v>
+        <v>856.76024</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>1730.23505</v>
@@ -1934,10 +1965,10 @@
         <v>2613.1647</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>3449.32701</v>
+        <v>3449.327010000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>9108.007889999999</v>
+        <v>9108.007890000001</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>1308.95603</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>4894.09824</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>6230.158</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1053.9711</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>357.4749200000001</v>
+        <v>357.47492</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>627.8964999999999</v>
@@ -1976,7 +2012,7 @@
         <v>248.79777</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4094.44962</v>
+        <v>4094.53681</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>898.93098</v>
@@ -1985,7 +2021,7 @@
         <v>1056.51632</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>64068.59173</v>
+        <v>64068.59173000001</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1648.55262</v>
@@ -1996,17 +2032,22 @@
       <c r="M31" s="48" t="n">
         <v>18349.92858</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>5914.363</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>74940.48299</v>
+        <v>74940.48298999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>86002.77067</v>
+        <v>86002.77066999998</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>105059.06755</v>
@@ -2015,31 +2056,36 @@
         <v>56450.22433</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>99338.06395</v>
+        <v>99374.48695999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>130004.56435</v>
+        <v>130005.68263</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>217390.97154</v>
+        <v>220511.40636</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>268182.76199</v>
+        <v>268184.53301</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>465895.2035600001</v>
+        <v>465895.20356</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>863358.71297</v>
+        <v>864770.03863</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>466983.96708</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>467059.5455</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1173549.251</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>18.24093</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>66.42081999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.299</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>172.27264</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>748.215</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>51679.24172999999</v>
@@ -2132,31 +2188,36 @@
         <v>42805.75229</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>31407.70337</v>
+        <v>31407.75675</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>52229.33534999999</v>
+        <v>52229.33536</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>56165.21643</v>
+        <v>56717.80515000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>66800.33172</v>
+        <v>66809.79412999999</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>80461.02515999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>69442.83318</v>
+        <v>69442.83317999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>73516.12241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>73678.51034000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>112703.975</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>88426.10821000001</v>
@@ -2168,19 +2229,19 @@
         <v>158403.63287</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>84345.38267000001</v>
+        <v>84345.38266999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>134447.692</v>
+        <v>134818.02957</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>144297.4664</v>
+        <v>144297.4672</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>286503.13021</v>
+        <v>290758.52801</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>472480.78746</v>
+        <v>472506.44093</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>590931.45601</v>
@@ -2189,13 +2250,18 @@
         <v>1014958.42909</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>521185.61175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>521235.29079</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1077763.638</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1326.51653</v>
@@ -2210,7 +2276,7 @@
         <v>760.43144</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>960.5557900000001</v>
+        <v>960.55579</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>432.01107</v>
@@ -2219,7 +2285,7 @@
         <v>2468.14516</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1656.60543</v>
+        <v>1663.60969</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>1477.13975</v>
@@ -2230,14 +2296,19 @@
       <c r="M37" s="48" t="n">
         <v>898.4441899999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1621.376</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>6698.136310000001</v>
+        <v>6698.13631</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>6976.70058</v>
@@ -2246,19 +2317,19 @@
         <v>3972.30446</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>21404.27433000001</v>
+        <v>21404.27433</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4127.92615</v>
+        <v>4248.14273</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>3821.60856</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5422.44567</v>
+        <v>5783.056619999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5272.73402</v>
+        <v>5272.734020000001</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>5312.45841</v>
@@ -2269,20 +2340,25 @@
       <c r="M38" s="48" t="n">
         <v>12594.74364</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>19651.758</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>753.6246399999999</v>
+        <v>753.62464</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>389.94184</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>48.97403000000001</v>
+        <v>48.97403</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>23.59163</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>59.69911</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>932.869</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>63087.73775</v>
+        <v>63087.73775000001</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>76200.91790999999</v>
@@ -2324,19 +2405,19 @@
         <v>108818.17976</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>43513.23726000001</v>
+        <v>43513.23725999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>123293.86842</v>
+        <v>123310.61271</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>124590.44131</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>254299.73761</v>
+        <v>258194.52433</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>444873.62823</v>
+        <v>444892.27744</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>557996.91313</v>
@@ -2345,13 +2426,18 @@
         <v>994555.1402500001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>485858.89626</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>485908.57529</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1024977.258</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.35781</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>42.22165</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>47.38047</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1158.936</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>16512.3547</v>
@@ -2444,13 +2540,13 @@
         <v>18643.84772</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4968.28574</v>
+        <v>5201.662439999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>15442.8478</v>
+        <v>15442.8486</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>23811.25212</v>
+        <v>23811.25225000001</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>20624.15637</v>
@@ -2462,19 +2558,24 @@
         <v>9989.303300000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>21731.6069</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>21731.60691</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>29420.631</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>56168.25489</v>
+        <v>56168.25489000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>34378.83619</v>
+        <v>34378.83618999999</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>46169.54306</v>
@@ -2483,31 +2584,36 @@
         <v>46351.60289</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>81558.76612</v>
+        <v>81587.43264999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>87598.28901000001</v>
+        <v>87675.27800000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>96913.90963000001</v>
+        <v>98172.85805</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>146941.09977</v>
+        <v>147535.79619</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>217825.52384</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>270452.30249</v>
+        <v>271363.04524</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>363710.22734</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>363731.1927899999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>473819.456</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>54268.57409</v>
@@ -2522,31 +2628,36 @@
         <v>39141.80908</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>64265.14758</v>
+        <v>64293.81411</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>70598.52086</v>
+        <v>70625.54978999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>80323.10834000001</v>
+        <v>81582.05676000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>119178.69079</v>
+        <v>119773.38721</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>196752.74085</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>242922.04158</v>
+        <v>243832.78433</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>335730.60319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>335751.56864</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>404315.957</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1899.6808</v>
@@ -2555,16 +2666,16 @@
         <v>1049.124</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>6289.692889999999</v>
+        <v>6289.69289</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>7209.793809999999</v>
+        <v>7209.79381</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>17293.61854</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>16999.76815</v>
+        <v>17049.72821</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>16590.80129</v>
@@ -2581,14 +2692,19 @@
       <c r="M46" s="48" t="n">
         <v>27979.62415</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>69503.499</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>81444.07175999999</v>
+        <v>81444.07176000001</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>159773.75075</v>
@@ -2600,34 +2716,39 @@
         <v>121135.82433</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>97132.43697000001</v>
+        <v>96541.80704</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>165313.50174</v>
+        <v>164987.67246</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>267896.3372</v>
+        <v>269554.1328</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>236546.21029</v>
+        <v>236758.69621</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>322914.47969</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>250233.40504</v>
+        <v>250381.59613</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>415557.88158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>417746.47879</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>774876.5870000001</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>42815.74207000001</v>
+        <v>42815.74207</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>34559.34976</v>
@@ -2639,31 +2760,36 @@
         <v>28483.51077</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>74186.21034000001</v>
+        <v>74187.14653</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>72331.36198</v>
+        <v>72362.64588</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>41700.34345</v>
+        <v>41989.45208</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>80722.8431</v>
+        <v>80727.84899</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>122017.85078</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>83111.47785</v>
+        <v>83147.3327</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>100666.45306</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>100682.73043</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>148290.241</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1119.63913</v>
@@ -2672,7 +2798,7 @@
         <v>245.1238</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>90.15606</v>
+        <v>90.15606000000001</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>1914.49099</v>
@@ -2681,13 +2807,13 @@
         <v>879.6562299999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1093.8726</v>
+        <v>1093.87409</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>1164.71366</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>8631.310379999999</v>
+        <v>8631.310380000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1207.87574</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>4852.25817</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>2450.558</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>41696.10294</v>
@@ -2717,31 +2848,36 @@
         <v>26569.01978</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>73306.55411</v>
+        <v>73307.49029999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>71237.48938</v>
+        <v>71268.77179</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>40535.62979</v>
+        <v>40824.73842</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>72091.53272</v>
+        <v>72096.53860999999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>120809.97504</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>82379.34070999999</v>
+        <v>82415.19556000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>95814.19489</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>95830.47226</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>145839.683</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>16394.50288</v>
@@ -2750,43 +2886,48 @@
         <v>28493.52095</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>97961.42757000003</v>
+        <v>97961.42757</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>80268.76854</v>
+        <v>80268.76853999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>24306.07745</v>
+        <v>24306.46821</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>59505.77554</v>
+        <v>59513.79649</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>25557.01507</v>
+        <v>25813.03974</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>124183.64056</v>
+        <v>124674.52131</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>44385.98884000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>104858.34482</v>
+        <v>104899.66619</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>72687.59178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>72688.57369</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>115680.605</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1516.21067</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>801.9510600000001</v>
+        <v>801.95106</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>1487.12834</v>
@@ -2795,7 +2936,7 @@
         <v>1493.00971</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>931.0521500000001</v>
+        <v>931.05215</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>1520.39931</v>
@@ -2804,7 +2945,7 @@
         <v>1160.51808</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>5416.1232</v>
+        <v>5899.567190000001</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>5670.886600000001</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>3893.46331</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>8934.751</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>4191.46572</v>
@@ -2837,13 +2983,13 @@
         <v>2130.57888</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3919.39592</v>
+        <v>3925.43387</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1796.68151</v>
+        <v>1802.04522</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4277.27887</v>
+        <v>4279.6059</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>3276.35369</v>
@@ -2852,13 +2998,18 @@
         <v>3812.24317</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>8711.906860000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8712.05256</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>9769.082</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>10686.82649</v>
@@ -2873,31 +3024,36 @@
         <v>73305.87608</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>21244.44642</v>
+        <v>21244.83718</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>54065.98031</v>
+        <v>54067.96331</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>22599.81548</v>
+        <v>22850.47644</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>114490.23849</v>
+        <v>114495.34822</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>35438.74855</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>95803.46153</v>
+        <v>95844.78290000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>60082.22161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>60083.05782</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>96976.772</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>107865.31095</v>
@@ -2912,31 +3068,36 @@
         <v>69350.56656000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>147012.56986</v>
+        <v>146422.48536</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>178139.08818</v>
+        <v>177836.52185</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>284039.66558</v>
+        <v>285730.54514</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>193085.41283</v>
+        <v>192812.02389</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>400546.34163</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>228486.53807</v>
+        <v>228629.26264</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>443536.74286</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>445740.63553</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>807486.223</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>17086.14101</v>
@@ -2951,31 +3112,36 @@
         <v>37572.01086</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>40194.86916</v>
+        <v>40194.86915999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>47820.70343</v>
+        <v>47829.37121</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>71959.32582999999</v>
+        <v>72013.83635</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>48199.09206</v>
+        <v>48199.64045000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>52689.61195999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>112649.40515</v>
+        <v>112752.40807</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>112314.41022</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>114063.97969</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>176302.181</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>90779.16993999999</v>
@@ -2984,34 +3150,37 @@
         <v>134467.03732</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>26584.01252</v>
+        <v>26584.01252000001</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>31778.5557</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>106817.7007</v>
+        <v>106227.6162</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>130318.38475</v>
+        <v>130007.15064</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>212080.33975</v>
+        <v>213716.70879</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>144886.32077</v>
+        <v>144612.38344</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>347856.72967</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>115837.13292</v>
+        <v>115876.85457</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>331222.33264</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>331676.65584</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>631184.042</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>714</v>
@@ -3044,28 +3216,31 @@
         <v>841</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1162</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1147</v>
+        <v>1169</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1256</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>